--- a/ConstitutiveLaws/CoLawLearn-Combinations.xlsx
+++ b/ConstitutiveLaws/CoLawLearn-Combinations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>Rankine</t>
   </si>
@@ -204,6 +204,27 @@
   </si>
   <si>
     <t>List of all Combinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo </t>
+  </si>
+  <si>
+    <t>RandonStrainGeneratorForPlot, eps_max as arg*</t>
+  </si>
+  <si>
+    <t>Write a general testfile to construct strains and stresses considering all laws</t>
+  </si>
+  <si>
+    <t>Update optimization unity testfile</t>
+  </si>
+  <si>
+    <t>runs, but effeiciency is bad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>very bad in compression, check test again, last I ran on Friday</t>
   </si>
 </sst>
 </file>
@@ -256,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +326,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -593,128 +626,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1254,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M51"/>
+  <dimension ref="B2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1273,142 +1308,159 @@
     <col min="13" max="13" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="27">
+    <row r="2" spans="2:14" ht="27">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="2:14">
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="4" t="s">
+      <c r="G4" s="22"/>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="4" t="s">
+      <c r="G5" s="24"/>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="4" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:13" ht="30" customHeight="1">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="33" t="s">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:14" ht="30" customHeight="1">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="2:13" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="M11" s="17" t="s">
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="M11" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:14">
       <c r="B12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="18" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13" s="44" t="str">
         <f>D15</f>
         <v>PosRankineLinSoftNegRankineLinSoft</v>
       </c>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="N13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="24" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="M14" t="str">
@@ -1416,39 +1468,39 @@
         <v>PosRankineExpoSoftNegRankineExpoSoft</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:14">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="26" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="27"/>
+      <c r="I15" s="26"/>
       <c r="M15" t="str">
         <f>D19</f>
         <v>PosRankineExpoSoftNegRankineParHardSoft</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:14">
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="25" t="s">
+      <c r="D16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="M16" t="str">
@@ -1456,161 +1508,167 @@
         <v>PosRankineExpoSoftNegRankineBezierHardSoft</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:14">
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="26" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="I17" s="26"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="25" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="M18" t="str">
+      <c r="J18" s="5"/>
+      <c r="M18" s="43" t="str">
         <f>D25</f>
         <v>PosRankineLinSoftNegDrucPragLinSoft</v>
       </c>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="N18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="26" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="5"/>
       <c r="M19" t="str">
         <f>D27</f>
         <v>PosRankineExpoSoftNegDrucPragExpoSoft</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:14">
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="25" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
       <c r="M20" t="str">
         <f>D29</f>
         <v>PosRankineExpoSoftNegDrucPragParHardExpoSoft</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1">
+    <row r="21" spans="2:14" ht="15.75" thickBot="1">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="28" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="28"/>
       <c r="M21" t="str">
         <f>D31</f>
         <v>PosRankineExpoSoftNegDrucPragBezierHardSoft</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:14">
       <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="2:13">
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="18" t="s">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M23" s="43" t="str">
         <f>D35</f>
         <v>PosRankineLinSoftNegLublinerLinSoft</v>
       </c>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="24" t="s">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="10" t="s">
         <v>5</v>
       </c>
       <c r="M24" t="str">
@@ -1618,39 +1676,39 @@
         <v>PosRankineExpoSoftNegLublinerExpoSoft</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:14">
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="26" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="27"/>
+      <c r="I25" s="26"/>
       <c r="M25" t="str">
         <f>D39</f>
         <v>PosRankineExpoSoftNegLublinerParHardExpoSoft</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:14">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="25" t="s">
+      <c r="D26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>6</v>
       </c>
       <c r="M26" t="str">
@@ -1658,75 +1716,78 @@
         <v>PosRankineExpoSoftNegLublinerBezierHardSoft</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:14">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="26" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="25" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M28" t="str">
+      <c r="M28" s="43" t="str">
         <f>D45</f>
         <v>PosRankineLinSoftNegPetraccaLinSoft</v>
       </c>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="N28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="26" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="27"/>
+      <c r="I29" s="26"/>
       <c r="M29" t="str">
         <f>D47</f>
         <v>PosRankineExpoSoftNegPetraccarExpoSoft</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:14">
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="25" t="s">
+      <c r="D30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="25" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>8</v>
       </c>
       <c r="M30" t="str">
@@ -1734,81 +1795,84 @@
         <v>PosRankineExpoSoftNegPetraccaParHardExpoSoft</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1">
+    <row r="31" spans="2:14" ht="15.75" thickBot="1">
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="28" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="29"/>
+      <c r="I31" s="28"/>
       <c r="M31" t="str">
         <f>D51</f>
         <v>PosRankineExpoSoftNegPetraccarBezierHardSoft</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:14">
       <c r="B32" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="30" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="2:13">
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="2:14">
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="18" t="s">
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M33" t="str">
+      <c r="M33" s="44" t="str">
         <f>H15</f>
         <v>PosPetraccaLinSoftNegRankineLinSoft</v>
       </c>
-    </row>
-    <row r="34" spans="2:13">
+      <c r="N33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="24" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="M34" t="str">
@@ -1816,39 +1880,39 @@
         <v>PosPetraccaExpoSoftNegRankineExpoSoft</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:14">
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="26" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="27"/>
+      <c r="I35" s="26"/>
       <c r="M35" t="str">
         <f>H19</f>
         <v>PosPetraccaExpoSoftNegRankineParHardSoft</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:14">
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="25" t="s">
+      <c r="D36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>6</v>
       </c>
       <c r="M36" t="str">
@@ -1856,75 +1920,78 @@
         <v>PosPetraccaExpoSoftNegRankineBezierHardSoft</v>
       </c>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:14">
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="26" t="s">
+      <c r="E37" s="26"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="2:13">
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="25" t="s">
+      <c r="D38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="25" t="s">
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M38" s="43" t="str">
         <f>H25</f>
         <v>PosPetraccaLinSoftNegDrucPragLinSoft</v>
       </c>
-    </row>
-    <row r="39" spans="2:13">
+      <c r="N38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="26" t="s">
+      <c r="E39" s="26"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="27"/>
+      <c r="I39" s="26"/>
       <c r="M39" t="str">
         <f>H27</f>
         <v>PosPetraccaExpoSoftNegDrucPragExpoSoft</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:14">
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="25" t="s">
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="10" t="s">
         <v>8</v>
       </c>
       <c r="M40" t="str">
@@ -1932,81 +1999,84 @@
         <v>PosPetraccaExpoSoftNegDrucPragParHardExpoSoft</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="15.75" thickBot="1">
+    <row r="41" spans="2:14" ht="15.75" thickBot="1">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="28" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="29"/>
+      <c r="I41" s="28"/>
       <c r="M41" t="str">
         <f>H31</f>
         <v>PosPetraccaExpoSoftNegDrucPragBezierHardSoft</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:14">
       <c r="B42" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="30" t="s">
+      <c r="E42" s="30"/>
+      <c r="F42" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" spans="2:13">
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="2:14">
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="18" t="s">
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M43" t="str">
+      <c r="M43" s="43" t="str">
         <f>H35</f>
         <v>PosPetraccaLinSoftNegLublinerLinSoft</v>
       </c>
-    </row>
-    <row r="44" spans="2:13">
+      <c r="N43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="24" t="s">
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="10" t="s">
         <v>5</v>
       </c>
       <c r="M44" t="str">
@@ -2014,39 +2084,39 @@
         <v>PosPetraccaExpoSoftNegLublinerExpoSoft</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:14">
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="26" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="27"/>
+      <c r="I45" s="26"/>
       <c r="M45" t="str">
         <f>H39</f>
         <v>PosPetraccaExpoSoftNegLublinerParHardExpoSoft</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:14">
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="25" t="s">
+      <c r="D46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>6</v>
       </c>
       <c r="M46" t="str">
@@ -2054,55 +2124,58 @@
         <v>PosPetraccaExpoSoftNegLublinerBezierHardSoft</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:14">
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="26" t="s">
+      <c r="E47" s="26"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I47" s="27"/>
-    </row>
-    <row r="48" spans="2:13">
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="2:14">
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="25" t="s">
+      <c r="D48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="25" t="s">
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M48" t="str">
+      <c r="M48" s="43" t="str">
         <f>H45</f>
         <v>PosPetraccaLinSoftNegPetraccaLinSoft</v>
+      </c>
+      <c r="N48" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="26" t="s">
+      <c r="E49" s="26"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I49" s="27"/>
+      <c r="I49" s="26"/>
       <c r="M49" t="str">
         <f>H47</f>
         <v>PosPetraccaExpoSoftNegPetraccarExpoSoft</v>
@@ -2111,18 +2184,18 @@
     <row r="50" spans="2:13">
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="25" t="s">
+      <c r="D50" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="25" t="s">
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="10" t="s">
         <v>8</v>
       </c>
       <c r="M50" t="str">
@@ -2133,16 +2206,16 @@
     <row r="51" spans="2:13" ht="15.75" thickBot="1">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="28" t="s">
+      <c r="E51" s="28"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I51" s="29"/>
+      <c r="I51" s="28"/>
       <c r="M51" t="str">
         <f>H51</f>
         <v>PosPetraccaExpoSoftNegPetraccarBezierHardSoft</v>
@@ -2150,6 +2223,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C21"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B22:C31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F32:F41"/>
+    <mergeCell ref="G32:G41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="B42:C51"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="F4:G4"/>
@@ -2157,59 +2274,15 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D51:E51"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H51:I51"/>
     <mergeCell ref="F42:F51"/>
     <mergeCell ref="G42:G51"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
     <mergeCell ref="B32:C41"/>
-    <mergeCell ref="F32:F41"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G21"/>
     <mergeCell ref="G22:G31"/>
-    <mergeCell ref="G32:G41"/>
     <mergeCell ref="F22:F31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B22:C31"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C21"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ConstitutiveLaws/CoLawLearn-Combinations.xlsx
+++ b/ConstitutiveLaws/CoLawLearn-Combinations.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$B$10:$I$51</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="64">
   <si>
     <t>Rankine</t>
   </si>
@@ -153,25 +156,13 @@
     <t>PosRankineLinSoftNegPetraccaLinSoft</t>
   </si>
   <si>
-    <t>PosRankineExpoSoftNegPetraccarExpoSoft</t>
-  </si>
-  <si>
     <t>PosRankineExpoSoftNegPetraccaParHardExpoSoft</t>
   </si>
   <si>
-    <t>PosRankineExpoSoftNegPetraccarBezierHardSoft</t>
-  </si>
-  <si>
     <t>PosPetraccaLinSoftNegPetraccaLinSoft</t>
   </si>
   <si>
-    <t>PosPetraccaExpoSoftNegPetraccarExpoSoft</t>
-  </si>
-  <si>
     <t>PosPetraccaExpoSoftNegPetraccaParHardExpoSoft</t>
-  </si>
-  <si>
-    <t>PosPetraccaExpoSoftNegPetraccarBezierHardSoft</t>
   </si>
   <si>
     <t>not yet implemented</t>
@@ -218,13 +209,28 @@
     <t>Update optimization unity testfile</t>
   </si>
   <si>
-    <t>runs, but effeiciency is bad</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>very bad in compression, check test again, last I ran on Friday</t>
+  </si>
+  <si>
+    <t>runs, but efficiency is bad</t>
+  </si>
+  <si>
+    <t>PosPetraccaExpoSoftNegPetraccaExpoSoft</t>
+  </si>
+  <si>
+    <t>half perfect</t>
+  </si>
+  <si>
+    <t>PosPetraccaExpoSoftNegPetraccaBezierHardSoft</t>
+  </si>
+  <si>
+    <t>PosRankineExpoSoftNegPetraccaBezierHardSoft</t>
+  </si>
+  <si>
+    <t>PosRankineExpoSoftNegPetraccaExpoSoft</t>
   </si>
 </sst>
 </file>
@@ -652,22 +658,78 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,62 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -848,8 +854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="762000" y="2256692"/>
-          <a:ext cx="1736481" cy="762000"/>
+          <a:off x="762000" y="1876425"/>
+          <a:ext cx="1733550" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -1291,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1310,15 +1316,15 @@
   <sheetData>
     <row r="2" spans="2:14" ht="27">
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="L3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -1328,12 +1334,12 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="22"/>
+      <c r="F4" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="42"/>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -1343,12 +1349,12 @@
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="24"/>
+      <c r="F5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="44"/>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -1358,8 +1364,8 @@
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="3" t="s">
@@ -1371,92 +1377,92 @@
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:14" ht="30" customHeight="1">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="41" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28"/>
       <c r="M11" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="44" t="str">
+      <c r="M13" s="12" t="str">
         <f>D15</f>
         <v>PosRankineLinSoftNegRankineLinSoft</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1469,34 +1475,34 @@
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="25" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="30"/>
       <c r="M15" t="str">
         <f>D19</f>
         <v>PosRankineExpoSoftNegRankineParHardSoft</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1509,31 +1515,31 @@
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="25" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="25" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="26"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1541,27 +1547,27 @@
         <v>7</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="M18" s="43" t="str">
+      <c r="M18" s="11" t="str">
         <f>D25</f>
         <v>PosRankineLinSoftNegDrucPragLinSoft</v>
       </c>
       <c r="N18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="25" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="25" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="26"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="5"/>
       <c r="M19" t="str">
         <f>D27</f>
@@ -1569,16 +1575,16 @@
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="9" t="s">
         <v>6</v>
       </c>
@@ -1592,79 +1598,79 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="27" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="27" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="14"/>
       <c r="M21" t="str">
         <f>D31</f>
         <v>PosRankineExpoSoftNegDrucPragBezierHardSoft</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="29" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="43" t="str">
+      <c r="M23" s="11" t="str">
         <f>D35</f>
         <v>PosRankineLinSoftNegLublinerLinSoft</v>
       </c>
       <c r="N23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="9" t="s">
         <v>5</v>
       </c>
@@ -1677,34 +1683,34 @@
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="25" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="25" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="26"/>
+      <c r="I25" s="30"/>
       <c r="M25" t="str">
         <f>D39</f>
         <v>PosRankineExpoSoftNegLublinerParHardExpoSoft</v>
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="9" t="s">
         <v>6</v>
       </c>
@@ -1717,158 +1723,167 @@
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="25" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="25" t="s">
+      <c r="E27" s="30"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="26"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="43" t="str">
+      <c r="M28" s="11" t="str">
         <f>D45</f>
         <v>PosRankineLinSoftNegPetraccaLinSoft</v>
       </c>
       <c r="N28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="25" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="25" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="M29" t="str">
+      <c r="I29" s="30"/>
+      <c r="M29" s="11" t="str">
         <f>D47</f>
-        <v>PosRankineExpoSoftNegPetraccarExpoSoft</v>
+        <v>PosRankineExpoSoftNegPetraccaExpoSoft</v>
+      </c>
+      <c r="N29" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M30" t="str">
+      <c r="M30" s="11" t="str">
         <f>D49</f>
         <v>PosRankineExpoSoftNegPetraccaParHardExpoSoft</v>
       </c>
+      <c r="N30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="27" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="27" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="M31" t="str">
+      <c r="I31" s="14"/>
+      <c r="M31" s="11" t="str">
         <f>D51</f>
-        <v>PosRankineExpoSoftNegPetraccarBezierHardSoft</v>
+        <v>PosRankineExpoSoftNegPetraccaBezierHardSoft</v>
+      </c>
+      <c r="N31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="29" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="44" t="str">
+      <c r="M33" s="12" t="str">
         <f>H15</f>
         <v>PosPetraccaLinSoftNegRankineLinSoft</v>
       </c>
       <c r="N33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="9" t="s">
         <v>5</v>
       </c>
@@ -1881,34 +1896,34 @@
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="25" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="25" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="26"/>
+      <c r="I35" s="30"/>
       <c r="M35" t="str">
         <f>H19</f>
         <v>PosPetraccaExpoSoftNegRankineParHardSoft</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="9" t="s">
         <v>6</v>
       </c>
@@ -1921,73 +1936,73 @@
       </c>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="25" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="25" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="26"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="43" t="str">
+      <c r="M38" s="11" t="str">
         <f>H25</f>
         <v>PosPetraccaLinSoftNegDrucPragLinSoft</v>
       </c>
       <c r="N38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="25" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="25" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="26"/>
+      <c r="I39" s="30"/>
       <c r="M39" t="str">
         <f>H27</f>
         <v>PosPetraccaExpoSoftNegDrucPragExpoSoft</v>
       </c>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="9" t="s">
         <v>6</v>
       </c>
@@ -2000,256 +2015,268 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="27" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="27" t="s">
+      <c r="E41" s="14"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="28"/>
+      <c r="I41" s="14"/>
       <c r="M41" t="str">
         <f>H31</f>
         <v>PosPetraccaExpoSoftNegDrucPragBezierHardSoft</v>
       </c>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="36"/>
+      <c r="D42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31" t="s">
+      <c r="E42" s="16"/>
+      <c r="F42" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G42" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="30"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="43" t="str">
+      <c r="M43" s="11" t="str">
         <f>H35</f>
         <v>PosPetraccaLinSoftNegLublinerLinSoft</v>
       </c>
       <c r="N43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M44" t="str">
+      <c r="M44" s="11" t="str">
         <f>H37</f>
         <v>PosPetraccaExpoSoftNegLublinerExpoSoft</v>
       </c>
+      <c r="N44" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="25" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="26"/>
-      <c r="M45" t="str">
+      <c r="E45" s="30"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="M45" s="11" t="str">
         <f>H39</f>
         <v>PosPetraccaExpoSoftNegLublinerParHardExpoSoft</v>
       </c>
+      <c r="N45" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M46" t="str">
+      <c r="M46" s="11" t="str">
         <f>H41</f>
         <v>PosPetraccaExpoSoftNegLublinerBezierHardSoft</v>
       </c>
+      <c r="N46" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" s="26"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="30"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
       <c r="H48" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M48" s="43" t="str">
+      <c r="M48" s="11" t="str">
         <f>H45</f>
         <v>PosPetraccaLinSoftNegPetraccaLinSoft</v>
       </c>
       <c r="N48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I49" s="26"/>
-      <c r="M49" t="str">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="30"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="M49" s="11" t="str">
         <f>H47</f>
-        <v>PosPetraccaExpoSoftNegPetraccarExpoSoft</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
+        <v>PosPetraccaExpoSoftNegPetraccaExpoSoft</v>
+      </c>
+      <c r="N49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M50" t="str">
+      <c r="M50" s="11" t="str">
         <f>H49</f>
         <v>PosPetraccaExpoSoftNegPetraccaParHardExpoSoft</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="28"/>
-      <c r="M51" t="str">
+      <c r="N50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="M51" s="11" t="str">
         <f>H51</f>
-        <v>PosPetraccaExpoSoftNegPetraccarBezierHardSoft</v>
+        <v>PosPetraccaExpoSoftNegPetraccaBezierHardSoft</v>
+      </c>
+      <c r="N51" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B32:C41"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G21"/>
+    <mergeCell ref="G22:G31"/>
+    <mergeCell ref="F22:F31"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B22:C31"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C21"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B22:C31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F42:F51"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B42:C51"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H39:I39"/>
@@ -2263,26 +2290,32 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B42:C51"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C21"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H10:I11"/>
     <mergeCell ref="B10:C11"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F42:F51"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B32:C41"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G21"/>
-    <mergeCell ref="G22:G31"/>
-    <mergeCell ref="F22:F31"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2299,7 +2332,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2312,6 +2345,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>